--- a/Tarea 03/materiales.xlsx
+++ b/Tarea 03/materiales.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75784D4D-9F32-4EDA-8FC2-416775745A5F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEF290E5-EBE0-42B2-BA41-C20DE8C55AD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>$E_m$</t>
   </si>
@@ -38,6 +39,12 @@
   </si>
   <si>
     <t>$2100000\frac{kgf}{cm^2}$</t>
+  </si>
+  <si>
+    <t>$f'm$</t>
+  </si>
+  <si>
+    <t>$150\frac{kgf}{cm^2}\cdot 0.25$</t>
   </si>
 </sst>
 </file>
@@ -375,7 +382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
@@ -410,4 +417,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14963F36-D3C7-4CCC-A9C2-6ED0F08F6434}">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>